--- a/Project 3 ISA.xlsx
+++ b/Project 3 ISA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\UIC Semester 6\366\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark\Documents\GitHub\ECE366Group17Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>Description</t>
   </si>
@@ -432,13 +432,19 @@
   </si>
   <si>
     <t>MC for program 2</t>
+  </si>
+  <si>
+    <t>slt  $10, $9, $8</t>
+  </si>
+  <si>
+    <t>sub $9, $9, $8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,13 +458,32 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -473,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -491,11 +516,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,9 +825,10 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="90.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -855,7 +893,7 @@
         <f t="shared" ref="B3:B65" si="2">RIGHT("0000000" &amp; DEC2BIN(ROW()-2),7)</f>
         <v>0000001</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -873,7 +911,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00000011</v>
       </c>
@@ -917,7 +955,7 @@
         <f t="shared" si="2"/>
         <v>0000011</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -935,7 +973,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00000110</v>
       </c>
@@ -979,7 +1017,7 @@
         <f>RIGHT("0000000" &amp; DEC2BIN(ROW()-2),7)</f>
         <v>0000101</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -997,7 +1035,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00001010</v>
       </c>
@@ -1041,7 +1079,7 @@
         <f t="shared" si="2"/>
         <v>0000111</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1059,7 +1097,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00001111</v>
       </c>
@@ -1103,7 +1141,7 @@
         <f t="shared" si="2"/>
         <v>0001001</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1121,7 +1159,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="4" t="str">
+      <c r="H11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00010010</v>
       </c>
@@ -1165,7 +1203,7 @@
         <f t="shared" si="2"/>
         <v>0001011</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1183,7 +1221,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H13" s="4" t="str">
+      <c r="H13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00010111</v>
       </c>
@@ -1227,7 +1265,7 @@
         <f t="shared" si="2"/>
         <v>0001101</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1245,7 +1283,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="4" t="str">
+      <c r="H15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00011011</v>
       </c>
@@ -1289,7 +1327,7 @@
         <f t="shared" si="2"/>
         <v>0001111</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1307,7 +1345,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="4" t="str">
+      <c r="H17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00011110</v>
       </c>
@@ -1351,25 +1389,25 @@
         <f t="shared" si="2"/>
         <v>0010001</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="6" t="str">
+      <c r="E19" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0010001</v>
       </c>
-      <c r="F19" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>EVEN</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="str">
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>EVEN</v>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00100010</v>
       </c>
@@ -1413,25 +1451,25 @@
         <f t="shared" si="2"/>
         <v>0010011</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0010011</v>
       </c>
-      <c r="F21" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>ODD</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H21" s="4" t="str">
+      <c r="F21" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ODD</v>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00100111</v>
       </c>
@@ -1475,7 +1513,7 @@
         <f t="shared" si="2"/>
         <v>0010101</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1493,7 +1531,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H23" s="4" t="str">
+      <c r="H23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00101011</v>
       </c>
@@ -1537,7 +1575,7 @@
         <f t="shared" si="2"/>
         <v>0010111</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1555,7 +1593,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="4" t="str">
+      <c r="H25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00101110</v>
       </c>
@@ -1599,7 +1637,7 @@
         <f t="shared" si="2"/>
         <v>0011001</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1617,7 +1655,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H27" s="4" t="str">
+      <c r="H27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00110011</v>
       </c>
@@ -1661,7 +1699,7 @@
         <f t="shared" si="2"/>
         <v>0011011</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1679,7 +1717,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="4" t="str">
+      <c r="H29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00110110</v>
       </c>
@@ -1723,7 +1761,7 @@
         <f t="shared" si="2"/>
         <v>0011101</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -1741,7 +1779,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="4" t="str">
+      <c r="H31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00111010</v>
       </c>
@@ -1785,7 +1823,7 @@
         <f t="shared" si="2"/>
         <v>0011111</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1803,7 +1841,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H33" s="4" t="str">
+      <c r="H33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00111111</v>
       </c>
@@ -1847,7 +1885,7 @@
         <f t="shared" si="2"/>
         <v>0100001</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1865,7 +1903,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="4" t="str">
+      <c r="H35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01000010</v>
       </c>
@@ -1909,7 +1947,7 @@
         <f t="shared" si="2"/>
         <v>0100011</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1927,7 +1965,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H37" s="4" t="str">
+      <c r="H37" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01000111</v>
       </c>
@@ -1971,7 +2009,7 @@
         <f t="shared" si="2"/>
         <v>0100101</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1989,7 +2027,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H39" s="4" t="str">
+      <c r="H39" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01001011</v>
       </c>
@@ -2033,7 +2071,7 @@
         <f t="shared" si="2"/>
         <v>0100111</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -2051,7 +2089,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="4" t="str">
+      <c r="H41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01001110</v>
       </c>
@@ -2095,7 +2133,7 @@
         <f t="shared" si="2"/>
         <v>0101001</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2113,7 +2151,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H43" s="4" t="str">
+      <c r="H43" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01010011</v>
       </c>
@@ -2157,8 +2195,12 @@
         <f t="shared" si="2"/>
         <v>0101011</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="11">
+        <v>1010110</v>
+      </c>
       <c r="E45" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0101011</v>
@@ -2184,8 +2226,9 @@
         <f t="shared" si="2"/>
         <v>0101100</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="E46" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0101100</v>
@@ -2725,16 +2768,16 @@
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -2742,7 +2785,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -2750,7 +2793,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -2758,7 +2801,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -2766,7 +2809,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -2774,7 +2817,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -2782,7 +2825,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -2790,7 +2833,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -2798,7 +2841,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -2806,7 +2849,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -2814,7 +2857,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -2822,7 +2865,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -2830,7 +2873,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -2838,7 +2881,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -2846,7 +2889,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -2854,7 +2897,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -2862,7 +2905,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -2876,8 +2919,8 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="5" t="s">
         <v>121</v>
       </c>
